--- a/Investment.xlsx
+++ b/Investment.xlsx
@@ -66,8 +66,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -95,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -106,6 +114,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,7 +580,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$1</c15:sqref>
@@ -598,7 +607,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$2:$E$8</c15:sqref>
@@ -632,7 +641,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-384A-45F4-A9AA-B267E3458086}"/>
                   </c:ext>
@@ -884,6 +893,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="612093944"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -899,7 +909,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7501135430009032E-3"/>
+          <c:y val="0.86090823192555477"/>
+          <c:w val="0.92228310735299368"/>
+          <c:h val="0.11727358625626343"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2392,16 +2411,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>288925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2422,16 +2441,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2716,10 +2735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="B1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2732,40 +2751,47 @@
     <col min="6" max="6" width="11.36328125" customWidth="1"/>
     <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.81640625" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" s="1">
         <v>2900</v>
       </c>
       <c r="C2" s="2">
-        <f>B13</f>
+        <f>L2</f>
         <v>35</v>
       </c>
       <c r="D2" s="2">
@@ -2791,10 +2817,16 @@
         <f>H2/F2</f>
         <v>0</v>
       </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
-        <f>B2*(1-$B$14)</f>
+        <f>B2*(1-$L$3)</f>
         <v>2755</v>
       </c>
       <c r="C3" s="2">
@@ -2802,7 +2834,7 @@
         <v>33.25</v>
       </c>
       <c r="D3" s="2">
-        <f>D2*(1+$B$15)</f>
+        <f>D2*(1+$L$4)</f>
         <v>2.8</v>
       </c>
       <c r="E3" s="2">
@@ -2825,22 +2857,28 @@
         <f t="shared" ref="I3:I8" si="2">H3/F3</f>
         <v>-4.6482412060301369E-2</v>
       </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B8" si="3">B3*(1-$B$14)</f>
+        <f>B3*(1-$L$3)</f>
         <v>2617.25</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C8" si="4">$C$2*B4/$B$2</f>
+        <f t="shared" ref="C4:C8" si="3">$C$2*B4/$B$2</f>
         <v>31.587499999999999</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D8" si="5">D3*(1+$B$15)</f>
+        <f>D3*(1+$L$4)</f>
         <v>3.9199999999999995</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E8" si="6">D4 + E3 * B4/B3</f>
+        <f t="shared" ref="E4:E8" si="4">D4 + E3 * B4/B3</f>
         <v>8.3849999999999998</v>
       </c>
       <c r="F4" s="2">
@@ -2859,22 +2897,28 @@
         <f t="shared" si="2"/>
         <v>-8.5715919487648728E-2</v>
       </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
+        <f>B4*(1-$L$3)</f>
+        <v>2486.3874999999998</v>
+      </c>
+      <c r="C5" s="2">
         <f t="shared" si="3"/>
-        <v>2486.3874999999998</v>
-      </c>
-      <c r="C5" s="2">
+        <v>30.008125</v>
+      </c>
+      <c r="D5" s="2">
+        <f>D4*(1+$L$4)</f>
+        <v>5.4879999999999987</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="4"/>
-        <v>30.008125</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="5"/>
-        <v>5.4879999999999987</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="6"/>
         <v>13.453749999999998</v>
       </c>
       <c r="F5" s="2">
@@ -2894,21 +2938,21 @@
         <v>-0.11677217119167614</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
+        <f>B5*(1-$L$3)</f>
+        <v>2362.0681249999998</v>
+      </c>
+      <c r="C6" s="2">
         <f t="shared" si="3"/>
-        <v>2362.0681249999998</v>
-      </c>
-      <c r="C6" s="2">
+        <v>28.507718749999999</v>
+      </c>
+      <c r="D6" s="2">
+        <f>D5*(1+$L$4)</f>
+        <v>7.6831999999999976</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="4"/>
-        <v>28.507718749999999</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="5"/>
-        <v>7.6831999999999976</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="6"/>
         <v>20.464262499999997</v>
       </c>
       <c r="F6" s="2">
@@ -2928,21 +2972,21 @@
         <v>-0.13919936211575779</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
+        <f>B6*(1-$L$3)</f>
+        <v>2243.9647187499995</v>
+      </c>
+      <c r="C7" s="2">
         <f t="shared" si="3"/>
-        <v>2243.9647187499995</v>
-      </c>
-      <c r="C7" s="2">
+        <v>27.082332812499992</v>
+      </c>
+      <c r="D7" s="2">
+        <f>D6*(1+$L$4)</f>
+        <v>10.756479999999996</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="4"/>
-        <v>27.082332812499992</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="5"/>
-        <v>10.756479999999996</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="6"/>
         <v>30.197529374999991</v>
       </c>
       <c r="F7" s="2">
@@ -2962,21 +3006,21 @@
         <v>-0.15326198640515104</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
+        <f>B7*(1-$L$3)</f>
+        <v>2131.7664828124994</v>
+      </c>
+      <c r="C8" s="2">
         <f t="shared" si="3"/>
-        <v>2131.7664828124994</v>
-      </c>
-      <c r="C8" s="2">
+        <v>25.72821617187499</v>
+      </c>
+      <c r="D8" s="2">
+        <f>D7*(1+$L$4)</f>
+        <v>15.059071999999993</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="4"/>
-        <v>25.72821617187499</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="5"/>
-        <v>15.059071999999993</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="6"/>
         <v>43.74672490624998</v>
       </c>
       <c r="F8" s="2">
@@ -2994,38 +3038,6 @@
       <c r="I8" s="3">
         <f t="shared" si="2"/>
         <v>-0.15998465181990248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>0.4</v>
       </c>
     </row>
   </sheetData>
